--- a/Simulation_Runs_Results.xlsx
+++ b/Simulation_Runs_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damon/Desktop/BACKED_UP/WorkFiles/ReportsPublicationsPatents/20200308_Patent_GravityFlat_PulseCharged_Zinc_Electrodes/Science_Journal_Publication/20200820_Pulse_Diffusion_2D_Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A900A9-4FB6-8A4F-ACB7-BFC07B3D7F2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B0DFB0-AD45-1042-9F10-37A51EAB9F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="24980" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="25200" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="September_simulations" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="68">
   <si>
     <t>filename</t>
   </si>
@@ -66,18 +66,12 @@
     <t>pulsed cap: 0.5 F/cm2</t>
   </si>
   <si>
-    <t>pulsed cap: 1 F/cm2</t>
-  </si>
-  <si>
     <t>"on" magnitude (mA/cm2 or mV)</t>
   </si>
   <si>
     <t xml:space="preserve">cap voltg: -0.9 mA/cm2 </t>
   </si>
   <si>
-    <t xml:space="preserve">cap voltg: -1 mA/cm2 </t>
-  </si>
-  <si>
     <t>"on" duration (s)</t>
   </si>
   <si>
@@ -102,15 +96,9 @@
     <t>time-space ave cd (mA/cm2)</t>
   </si>
   <si>
-    <t>need to fix</t>
-  </si>
-  <si>
     <t>Results</t>
   </si>
   <si>
-    <t>looks great!</t>
-  </si>
-  <si>
     <t>Importance of this run?</t>
   </si>
   <si>
@@ -186,9 +174,6 @@
     <t>Pit Widths (um)</t>
   </si>
   <si>
-    <t xml:space="preserve">cap voltg: -3 mA/cm2 </t>
-  </si>
-  <si>
     <t>Constant Current</t>
   </si>
   <si>
@@ -204,7 +189,52 @@
     <t>Pulsed Capacitor</t>
   </si>
   <si>
-    <t>limiting current density in mA/cm2</t>
+    <t>Julia Simulation version</t>
+  </si>
+  <si>
+    <t>v1.8</t>
+  </si>
+  <si>
+    <t>mA/cm2</t>
+  </si>
+  <si>
+    <t>limiting current density for D=2E-11 m2/s:</t>
+  </si>
+  <si>
+    <t>time-ave superficial cd (mA/cm2)</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>fresh system or has parent?</t>
+  </si>
+  <si>
+    <t>hits voltage limit</t>
+  </si>
+  <si>
+    <t>ave is -8, asymptotes to -1</t>
+  </si>
+  <si>
+    <t>&lt;--- this is the parent</t>
+  </si>
+  <si>
+    <t>&lt;-- this is the parent</t>
+  </si>
+  <si>
+    <t>pits have much less current than peaks</t>
+  </si>
+  <si>
+    <t>hits the 300 mV limit;  pits have much less current than peaks</t>
+  </si>
+  <si>
+    <t>pits have ~same current as peaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> diff -0.54 to -1.44</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -216,7 +246,7 @@
     <numFmt numFmtId="165" formatCode="0E+00"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -283,8 +313,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +352,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -333,6 +380,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E7FD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -346,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -408,13 +479,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -437,6 +508,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="11" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -449,99 +523,133 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,60 +868,78 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG110"/>
+  <dimension ref="A1:XFD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="41" customWidth="1"/>
-    <col min="3" max="4" width="14.5" style="41" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="41" customWidth="1"/>
-    <col min="6" max="10" width="13.1640625" style="41" customWidth="1"/>
-    <col min="11" max="12" width="13.1640625" style="41" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="41" hidden="1"/>
-    <col min="14" max="14" width="16.83203125" style="41" hidden="1"/>
-    <col min="15" max="15" width="16" style="41" hidden="1"/>
-    <col min="16" max="33" width="0" style="41" hidden="1"/>
-    <col min="34" max="16384" width="14.5" style="41" hidden="1"/>
+    <col min="1" max="1" width="30.6640625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="42" customWidth="1"/>
+    <col min="3" max="4" width="15.83203125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="42" customWidth="1"/>
+    <col min="7" max="8" width="13.83203125" style="42" customWidth="1"/>
+    <col min="9" max="10" width="13.1640625" style="42" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="42" customWidth="1"/>
+    <col min="12" max="13" width="13.1640625" style="42" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="42" hidden="1"/>
+    <col min="15" max="15" width="16.83203125" style="42" hidden="1"/>
+    <col min="16" max="16" width="16" style="42" hidden="1"/>
+    <col min="17" max="34" width="0" style="42" hidden="1"/>
+    <col min="35" max="16382" width="14.5" style="42" hidden="1"/>
+    <col min="16383" max="16383" width="0.5" style="42" customWidth="1"/>
+    <col min="16384" max="16384" width="0.83203125" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:33" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="F1" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84">
+        <f>0.00000000002*1000/0.0001*96500/10000*1000</f>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="65"/>
+    </row>
+    <row r="2" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18">
-        <v>20200912094056</v>
-      </c>
-      <c r="C2" s="18">
-        <v>20200912103116</v>
-      </c>
-      <c r="D2" s="19">
-        <v>20200912192559</v>
-      </c>
-      <c r="E2" s="19"/>
+      <c r="B2" s="19">
+        <v>20201013230637</v>
+      </c>
+      <c r="C2" s="19">
+        <v>20201015084315</v>
+      </c>
+      <c r="D2" s="18">
+        <v>20201013230704</v>
+      </c>
+      <c r="E2" s="19">
+        <v>20201014123212</v>
+      </c>
       <c r="H2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="Q2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="21"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="20"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
@@ -823,2051 +949,2980 @@
       <c r="AE2" s="21"/>
       <c r="AF2" s="21"/>
       <c r="AG2" s="21"/>
-    </row>
-    <row r="3" spans="1:33" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH2" s="21"/>
+    </row>
+    <row r="3" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="22">
+        <v>52</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+    </row>
+    <row r="4" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+    </row>
+    <row r="5" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="22">
         <v>30</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C5" s="22">
         <v>30</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D5" s="22">
         <v>30</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="H3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="24"/>
-    </row>
-    <row r="4" spans="1:33" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="E5" s="22">
+        <v>30</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="23"/>
+    </row>
+    <row r="6" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="22">
+        <v>15</v>
+      </c>
+      <c r="C6" s="22">
+        <v>15</v>
+      </c>
+      <c r="D6" s="22">
+        <v>15</v>
+      </c>
+      <c r="E6" s="22">
+        <v>15</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="23"/>
+    </row>
+    <row r="7" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25">
+        <v>120</v>
+      </c>
+      <c r="C7" s="25">
         <v>50</v>
       </c>
-      <c r="B4" s="22">
-        <v>15</v>
-      </c>
-      <c r="C4" s="22">
-        <v>15</v>
-      </c>
-      <c r="D4" s="22">
-        <v>15</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="H4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="24"/>
-    </row>
-    <row r="5" spans="1:33" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="25">
-        <v>25</v>
-      </c>
-      <c r="C5" s="54">
-        <v>60</v>
-      </c>
-      <c r="D5" s="54">
+      <c r="D7" s="25">
         <v>120</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-    </row>
-    <row r="6" spans="1:33" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="28">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="C6" s="28">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="D6" s="28">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="G6" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-    </row>
-    <row r="7" spans="1:33" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="C7" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="D7" s="30">
-        <v>2</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="G7" s="70">
-        <f>0.00000000001*1000/0.0001*96500/10000*1000</f>
-        <v>0.96499999999999986</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="27"/>
+      <c r="E7" s="25">
+        <v>120</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="R7" s="26"/>
       <c r="S7" s="27"/>
       <c r="T7" s="27"/>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
-    </row>
-    <row r="8" spans="1:33" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="X7" s="27"/>
+    </row>
+    <row r="8" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="28">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C8" s="28">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="D8" s="28">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="E8" s="28">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+    </row>
+    <row r="9" spans="1:34" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="30">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <v>1</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+    </row>
+    <row r="10" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+    </row>
+    <row r="11" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+    </row>
+    <row r="12" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="34">
+        <v>-5</v>
+      </c>
+      <c r="C12" s="34">
+        <v>-5</v>
+      </c>
+      <c r="D12" s="55">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="34">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="23"/>
+    </row>
+    <row r="13" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+    </row>
+    <row r="14" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+    </row>
+    <row r="15" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+    </row>
+    <row r="16" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="35">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="C16" s="35">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="E16" s="35">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+    </row>
+    <row r="17" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="37">
+        <v>-3</v>
+      </c>
+      <c r="D17" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="37">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+    </row>
+    <row r="18" spans="1:24" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+    </row>
+    <row r="19" spans="1:24" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+    </row>
+    <row r="20" spans="1:24" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+    </row>
+    <row r="21" spans="1:24" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+    </row>
+    <row r="22" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+    </row>
+    <row r="23" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="39"/>
+      <c r="B23" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+    </row>
+    <row r="24" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="44">
+        <v>20201014095033</v>
+      </c>
+      <c r="C24" s="44">
+        <v>20201015085307</v>
+      </c>
+      <c r="D24" s="44">
+        <v>20201014141856</v>
+      </c>
+      <c r="E24" s="44">
+        <v>20201014200623</v>
+      </c>
+      <c r="F24" s="44">
+        <v>20201015084034</v>
+      </c>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+    </row>
+    <row r="25" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+    </row>
+    <row r="26" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+    </row>
+    <row r="27" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="45">
+        <v>30</v>
+      </c>
+      <c r="C27" s="45">
+        <v>30</v>
+      </c>
+      <c r="D27" s="45">
+        <v>30</v>
+      </c>
+      <c r="E27" s="45">
+        <v>30</v>
+      </c>
+      <c r="F27" s="45">
+        <v>30</v>
+      </c>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+    </row>
+    <row r="28" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A28" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="45">
+        <v>15</v>
+      </c>
+      <c r="C28" s="45">
+        <v>15</v>
+      </c>
+      <c r="D28" s="45">
+        <v>15</v>
+      </c>
+      <c r="E28" s="45">
+        <v>15</v>
+      </c>
+      <c r="F28" s="45">
+        <v>15</v>
+      </c>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+    </row>
+    <row r="29" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="46">
+        <v>60</v>
+      </c>
+      <c r="C29" s="46">
+        <v>30</v>
+      </c>
+      <c r="D29" s="46">
+        <v>60</v>
+      </c>
+      <c r="E29" s="46">
+        <v>60</v>
+      </c>
+      <c r="F29" s="46">
+        <v>60</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+    </row>
+    <row r="30" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="47">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C30" s="47">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="D30" s="47">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="E30" s="47">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F30" s="47">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+    </row>
+    <row r="31" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A31" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="C31" s="49">
+        <v>1</v>
+      </c>
+      <c r="D31" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="E31" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="F31" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+    </row>
+    <row r="32" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="50">
         <v>0.5</v>
       </c>
-      <c r="D8" s="32">
-        <v>1</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-    </row>
-    <row r="9" spans="1:33" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
+      <c r="C32" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+    </row>
+    <row r="33" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-    </row>
-    <row r="10" spans="1:33" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="25">
-        <v>-25</v>
-      </c>
-      <c r="C10" s="25">
-        <v>-25</v>
-      </c>
-      <c r="D10" s="55">
-        <v>-5</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="24"/>
-    </row>
-    <row r="11" spans="1:33" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+      <c r="B33" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+    </row>
+    <row r="34" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="52">
+        <v>-0.1</v>
+      </c>
+      <c r="C34" s="52">
+        <v>-0.1</v>
+      </c>
+      <c r="D34" s="67">
+        <v>-1E-3</v>
+      </c>
+      <c r="E34" s="67">
+        <v>-1E-3</v>
+      </c>
+      <c r="F34" s="67">
+        <v>-1E-3</v>
+      </c>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+    </row>
+    <row r="35" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A35" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="53">
+        <v>60</v>
+      </c>
+      <c r="C35" s="53">
+        <v>60</v>
+      </c>
+      <c r="D35" s="53">
+        <v>60</v>
+      </c>
+      <c r="E35" s="53">
+        <v>60</v>
+      </c>
+      <c r="F35" s="53">
+        <v>60</v>
+      </c>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+    </row>
+    <row r="36" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A36" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="H11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-    </row>
-    <row r="12" spans="1:33" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="35" t="s">
+      <c r="B36" s="53">
+        <v>-0.1</v>
+      </c>
+      <c r="C36" s="53">
+        <v>-0.1</v>
+      </c>
+      <c r="D36" s="52">
+        <v>-1E-3</v>
+      </c>
+      <c r="E36" s="52">
+        <v>-1E-3</v>
+      </c>
+      <c r="F36" s="52">
+        <v>-1E-3</v>
+      </c>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+    </row>
+    <row r="37" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="H12" s="34"/>
-      <c r="J12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-    </row>
-    <row r="13" spans="1:33" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="B37" s="53">
+        <v>110</v>
+      </c>
+      <c r="C37" s="53">
+        <v>110</v>
+      </c>
+      <c r="D37" s="53">
+        <v>110</v>
+      </c>
+      <c r="E37" s="53">
+        <v>110</v>
+      </c>
+      <c r="F37" s="53">
+        <v>110</v>
+      </c>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+    </row>
+    <row r="38" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="54">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="C38" s="54">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="D38" s="54">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="E38" s="54">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="F38" s="54">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+    </row>
+    <row r="39" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A39" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="H13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-    </row>
-    <row r="14" spans="1:33" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="B39" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="71">
+        <v>-2.95</v>
+      </c>
+      <c r="D39" s="50">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="50">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="50">
+        <v>-1</v>
+      </c>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+    </row>
+    <row r="40" spans="1:24" ht="24" x14ac:dyDescent="0.15">
+      <c r="A40" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="34">
-        <v>9.9999999999999994E-12</v>
-      </c>
-      <c r="C14" s="34">
-        <v>9.9999999999999994E-12</v>
-      </c>
-      <c r="D14" s="34">
-        <v>9.9999999999999994E-12</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-    </row>
-    <row r="15" spans="1:33" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+    </row>
+    <row r="41" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="32">
-        <v>-23.8</v>
-      </c>
-      <c r="C15" s="36">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="D15" s="36">
-        <v>-5</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-    </row>
-    <row r="16" spans="1:33" s="15" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-    </row>
-    <row r="17" spans="1:23" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-    </row>
-    <row r="18" spans="1:23" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-    </row>
-    <row r="19" spans="1:23" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-    </row>
-    <row r="20" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-    </row>
-    <row r="21" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="38"/>
-      <c r="B21" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-    </row>
-    <row r="22" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="43">
-        <v>20200912194647</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-    </row>
-    <row r="23" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="44">
-        <v>30</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-    </row>
-    <row r="24" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="44">
-        <v>15</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-    </row>
-    <row r="25" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="45">
-        <v>60</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-    </row>
-    <row r="26" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="46">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-    </row>
-    <row r="27" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="48">
-        <v>0.6</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-    </row>
-    <row r="28" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-    </row>
-    <row r="29" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-    </row>
-    <row r="30" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="51">
-        <v>-0.02</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-    </row>
-    <row r="31" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="52">
-        <v>0.3</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-    </row>
-    <row r="32" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="52">
-        <v>0</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-    </row>
-    <row r="33" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="52">
-        <v>10</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-    </row>
-    <row r="34" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="53">
-        <v>9.9999999999999994E-12</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-    </row>
-    <row r="35" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-    </row>
-    <row r="36" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-    </row>
-    <row r="37" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-    </row>
-    <row r="38" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-    </row>
-    <row r="39" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-    </row>
-    <row r="40" spans="1:23" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:23" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="17"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
-    </row>
-    <row r="42" spans="1:23" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="17"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-    </row>
-    <row r="43" spans="1:23" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="17"/>
-      <c r="B43" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-    </row>
-    <row r="44" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="19">
-        <v>20200912124857</v>
-      </c>
-      <c r="C44" s="19">
-        <v>20200912173307</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-    </row>
-    <row r="45" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="22">
-        <v>30</v>
-      </c>
-      <c r="C45" s="22">
-        <v>30</v>
-      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+    </row>
+    <row r="42" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+    </row>
+    <row r="43" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+    </row>
+    <row r="44" spans="1:24" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+    </row>
+    <row r="45" spans="1:24" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A45" s="17"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-    </row>
-    <row r="46" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="22">
-        <v>15</v>
-      </c>
-      <c r="C46" s="22">
-        <v>15</v>
-      </c>
+      <c r="J45" s="32"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+    </row>
+    <row r="46" spans="1:24" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46" s="17"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-    </row>
-    <row r="47" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="25">
-        <v>60</v>
-      </c>
-      <c r="C47" s="56">
-        <v>60</v>
-      </c>
-      <c r="D47" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+    </row>
+    <row r="47" spans="1:24" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A47" s="17"/>
+      <c r="B47" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-    </row>
-    <row r="48" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="J47" s="32"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+    </row>
+    <row r="48" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="19">
+        <v>20201015104825</v>
+      </c>
+      <c r="C48" s="19">
+        <v>20201015150143</v>
+      </c>
+      <c r="D48" s="19">
+        <v>20201015205522</v>
+      </c>
+      <c r="E48" s="32"/>
+      <c r="F48" s="19">
+        <v>20201015205522</v>
+      </c>
+      <c r="G48" s="19">
+        <v>20201017004448</v>
+      </c>
+      <c r="H48" s="19">
+        <v>20201017102424</v>
+      </c>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19">
+        <v>20201017220514</v>
+      </c>
+      <c r="K48" s="19"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+    </row>
+    <row r="49" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A49" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="32"/>
+      <c r="J49" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+    </row>
+    <row r="50" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="32"/>
+      <c r="J50" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+    </row>
+    <row r="51" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="22">
+        <v>30</v>
+      </c>
+      <c r="C51" s="22">
+        <v>60</v>
+      </c>
+      <c r="D51" s="22">
+        <v>30</v>
+      </c>
+      <c r="E51" s="32"/>
+      <c r="F51" s="22">
+        <v>30</v>
+      </c>
+      <c r="G51" s="22">
+        <v>60</v>
+      </c>
+      <c r="H51" s="22">
+        <v>60</v>
+      </c>
+      <c r="I51" s="32"/>
+      <c r="J51" s="22">
+        <v>30</v>
+      </c>
+      <c r="K51" s="22">
+        <v>60</v>
+      </c>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+    </row>
+    <row r="52" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="22">
+        <v>15</v>
+      </c>
+      <c r="C52" s="22">
+        <v>15</v>
+      </c>
+      <c r="D52" s="22">
+        <v>15</v>
+      </c>
+      <c r="E52" s="32"/>
+      <c r="F52" s="22">
+        <v>15</v>
+      </c>
+      <c r="G52" s="22">
+        <v>15</v>
+      </c>
+      <c r="H52" s="22">
+        <v>15</v>
+      </c>
+      <c r="I52" s="32"/>
+      <c r="J52" s="22">
+        <v>15</v>
+      </c>
+      <c r="K52" s="22">
+        <v>15</v>
+      </c>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+    </row>
+    <row r="53" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A53" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="24">
+        <v>30</v>
+      </c>
+      <c r="C53" s="24">
+        <v>30</v>
+      </c>
+      <c r="D53" s="77">
+        <v>30</v>
+      </c>
+      <c r="E53" s="32"/>
+      <c r="F53" s="24">
+        <v>100</v>
+      </c>
+      <c r="G53" s="24">
+        <v>100</v>
+      </c>
+      <c r="H53" s="77">
+        <v>25</v>
+      </c>
+      <c r="I53" s="32"/>
+      <c r="J53" s="24">
+        <v>200</v>
+      </c>
+      <c r="K53" s="24">
+        <v>25</v>
+      </c>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+    </row>
+    <row r="54" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A54" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B54" s="28">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="C48" s="57">
+      <c r="C54" s="28">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-    </row>
-    <row r="49" spans="1:23" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="29" t="s">
+      <c r="D54" s="28">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E54" s="32"/>
+      <c r="F54" s="28">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G54" s="28">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H54" s="28">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="I54" s="32"/>
+      <c r="J54" s="28">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K54" s="28">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+    </row>
+    <row r="55" spans="1:24" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B55" s="30">
         <v>0.1</v>
       </c>
-      <c r="C49" s="58">
+      <c r="C55" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="76">
+        <v>0.05</v>
+      </c>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32">
+        <v>1</v>
+      </c>
+      <c r="G55" s="32">
+        <v>1</v>
+      </c>
+      <c r="H55" s="81">
+        <v>0.05</v>
+      </c>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32">
+        <v>2</v>
+      </c>
+      <c r="K55" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+    </row>
+    <row r="56" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="32">
+        <v>1</v>
+      </c>
+      <c r="C56" s="32">
+        <v>1</v>
+      </c>
+      <c r="D56" s="32">
+        <v>1</v>
+      </c>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="G56" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="H56" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+    </row>
+    <row r="57" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K57" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="23"/>
+      <c r="W57" s="23"/>
+      <c r="X57" s="23"/>
+    </row>
+    <row r="58" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="24">
+        <v>-20</v>
+      </c>
+      <c r="C58" s="24">
+        <v>-20</v>
+      </c>
+      <c r="D58" s="24">
+        <v>-20</v>
+      </c>
+      <c r="E58" s="32"/>
+      <c r="F58" s="24">
+        <v>-500</v>
+      </c>
+      <c r="G58" s="24">
+        <v>-500</v>
+      </c>
+      <c r="H58" s="24">
+        <v>-500</v>
+      </c>
+      <c r="I58" s="32"/>
+      <c r="J58" s="24">
+        <v>-800</v>
+      </c>
+      <c r="K58" s="24">
+        <v>-800</v>
+      </c>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23"/>
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+    </row>
+    <row r="59" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A59" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="C59" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="D59" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="E59" s="32"/>
+      <c r="F59" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="G59" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="H59" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="I59" s="32"/>
+      <c r="J59" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="K59" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="23"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
+    </row>
+    <row r="60" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A60" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="36">
+        <v>0</v>
+      </c>
+      <c r="C60" s="36">
+        <v>0</v>
+      </c>
+      <c r="D60" s="36">
+        <v>0</v>
+      </c>
+      <c r="E60" s="32"/>
+      <c r="F60" s="36">
+        <v>0</v>
+      </c>
+      <c r="G60" s="36">
+        <v>0</v>
+      </c>
+      <c r="H60" s="36">
+        <v>0</v>
+      </c>
+      <c r="I60" s="32"/>
+      <c r="J60" s="36">
+        <v>0</v>
+      </c>
+      <c r="K60" s="36">
+        <v>0</v>
+      </c>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="23"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="23"/>
+      <c r="X60" s="23"/>
+    </row>
+    <row r="61" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="36">
+        <v>10</v>
+      </c>
+      <c r="C61" s="36">
+        <v>10</v>
+      </c>
+      <c r="D61" s="36">
+        <v>10</v>
+      </c>
+      <c r="E61" s="32"/>
+      <c r="F61" s="36">
+        <v>9.75</v>
+      </c>
+      <c r="G61" s="36">
+        <v>9.75</v>
+      </c>
+      <c r="H61" s="36">
+        <v>9.75</v>
+      </c>
+      <c r="I61" s="32"/>
+      <c r="J61" s="36">
+        <v>9.75</v>
+      </c>
+      <c r="K61" s="36">
+        <v>9.75</v>
+      </c>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="23"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="23"/>
+      <c r="X61" s="23"/>
+    </row>
+    <row r="62" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A62" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="35">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="C62" s="35">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="D62" s="35">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="E62" s="32"/>
+      <c r="F62" s="35">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="G62" s="35">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="H62" s="35">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="I62" s="32"/>
+      <c r="J62" s="35">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="K62" s="35">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+    </row>
+    <row r="63" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="37">
+        <v>-0.6</v>
+      </c>
+      <c r="C63" s="37">
+        <v>-0.6</v>
+      </c>
+      <c r="D63" s="37">
+        <v>-0.6</v>
+      </c>
+      <c r="E63" s="32"/>
+      <c r="F63" s="37">
+        <v>-1.3</v>
+      </c>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32">
+        <v>-1.5</v>
+      </c>
+      <c r="I63" s="32"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+    </row>
+    <row r="64" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A64" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+    </row>
+    <row r="65" spans="1:24" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A65" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
+      <c r="X65" s="23"/>
+    </row>
+    <row r="66" spans="1:24" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="17"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+    </row>
+    <row r="67" spans="1:24" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="17"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="23"/>
+      <c r="W67" s="23"/>
+      <c r="X67" s="23"/>
+    </row>
+    <row r="68" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:24" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+    </row>
+    <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="44">
+        <v>20201015105212</v>
+      </c>
+      <c r="C73" s="44">
+        <v>20201015145824</v>
+      </c>
+      <c r="D73" s="44">
+        <v>20201015205444</v>
+      </c>
+      <c r="F73" s="44">
+        <v>20201016112707</v>
+      </c>
+      <c r="G73" s="79">
+        <v>20201017004759</v>
+      </c>
+      <c r="H73" s="79">
+        <v>20201017102216</v>
+      </c>
+      <c r="I73" s="79"/>
+      <c r="J73" s="44">
+        <v>20201017220721</v>
+      </c>
+      <c r="K73" s="79"/>
+    </row>
+    <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H74" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="J74" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="K74" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="H75" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="J75" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" s="45">
+        <v>30</v>
+      </c>
+      <c r="C76" s="45">
+        <v>30</v>
+      </c>
+      <c r="D76" s="45">
+        <v>30</v>
+      </c>
+      <c r="F76" s="45">
+        <v>30</v>
+      </c>
+      <c r="G76" s="45">
+        <v>30</v>
+      </c>
+      <c r="H76" s="45">
+        <v>30</v>
+      </c>
+      <c r="J76" s="45">
+        <v>30</v>
+      </c>
+      <c r="K76" s="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="45">
+        <v>15</v>
+      </c>
+      <c r="C77" s="45">
+        <v>15</v>
+      </c>
+      <c r="D77" s="45">
+        <v>15</v>
+      </c>
+      <c r="F77" s="45">
+        <v>15</v>
+      </c>
+      <c r="G77" s="45">
+        <v>15</v>
+      </c>
+      <c r="H77" s="45">
+        <v>15</v>
+      </c>
+      <c r="J77" s="45">
+        <v>15</v>
+      </c>
+      <c r="K77" s="45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="46">
+        <v>30</v>
+      </c>
+      <c r="C78" s="46">
+        <v>60</v>
+      </c>
+      <c r="D78" s="73">
+        <v>30</v>
+      </c>
+      <c r="F78" s="46">
+        <v>100</v>
+      </c>
+      <c r="G78" s="46">
+        <v>100</v>
+      </c>
+      <c r="H78" s="73">
+        <v>25</v>
+      </c>
+      <c r="J78" s="46">
+        <v>200</v>
+      </c>
+      <c r="K78" s="46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="47">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C79" s="47">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D79" s="47">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F79" s="47">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G79" s="47">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H79" s="47">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J79" s="47">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K79" s="47">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="49">
         <v>0.1</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-    </row>
-    <row r="50" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="17" t="s">
+      <c r="C80" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="72">
+        <v>0.05</v>
+      </c>
+      <c r="F80" s="49">
+        <v>1</v>
+      </c>
+      <c r="G80" s="49">
+        <v>1</v>
+      </c>
+      <c r="H80" s="49">
+        <v>1</v>
+      </c>
+      <c r="J80" s="49">
+        <v>2</v>
+      </c>
+      <c r="K80" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="32">
+      <c r="B81" s="50">
         <v>1</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C81" s="50">
         <v>1</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-    </row>
-    <row r="51" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="33" t="s">
+      <c r="D81" s="50">
+        <v>1</v>
+      </c>
+      <c r="F81" s="50">
+        <v>1</v>
+      </c>
+      <c r="G81" s="50">
+        <v>1</v>
+      </c>
+      <c r="H81" s="80">
+        <v>0.05</v>
+      </c>
+      <c r="J81" s="50">
+        <v>1</v>
+      </c>
+      <c r="K81" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-    </row>
-    <row r="52" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="25">
-        <v>-20</v>
-      </c>
-      <c r="C52" s="55">
-        <v>-50</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
-      <c r="U52" s="24"/>
-      <c r="V52" s="24"/>
-      <c r="W52" s="24"/>
-    </row>
-    <row r="53" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="17" t="s">
+      <c r="B82" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="61">
+        <v>-0.05</v>
+      </c>
+      <c r="C83" s="61">
+        <v>-0.05</v>
+      </c>
+      <c r="D83" s="61">
+        <v>-0.05</v>
+      </c>
+      <c r="F83" s="61">
+        <v>-0.15</v>
+      </c>
+      <c r="G83" s="61">
+        <v>-0.15</v>
+      </c>
+      <c r="H83" s="61">
+        <v>-0.15</v>
+      </c>
+      <c r="J83" s="61">
+        <v>-0.3</v>
+      </c>
+      <c r="K83" s="61">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="C84" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="D84" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="F84" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G84" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="H84" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="J84" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="K84" s="53">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="35">
-        <v>0.3</v>
-      </c>
-      <c r="C53" s="59">
-        <v>0.3</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="24"/>
-      <c r="W53" s="24"/>
-    </row>
-    <row r="54" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="35">
+      <c r="B85" s="53">
         <v>0</v>
       </c>
-      <c r="C54" s="59">
+      <c r="C85" s="53">
         <v>0</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
-    </row>
-    <row r="55" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A55" s="17" t="s">
+      <c r="D85" s="53">
+        <v>0</v>
+      </c>
+      <c r="F85" s="53">
+        <v>0</v>
+      </c>
+      <c r="G85" s="53">
+        <v>0</v>
+      </c>
+      <c r="H85" s="53">
+        <v>0</v>
+      </c>
+      <c r="J85" s="53">
+        <v>0</v>
+      </c>
+      <c r="K85" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="53">
+        <v>10</v>
+      </c>
+      <c r="C86" s="53">
+        <v>10</v>
+      </c>
+      <c r="D86" s="53">
+        <v>10</v>
+      </c>
+      <c r="F86" s="53">
+        <v>10</v>
+      </c>
+      <c r="G86" s="53">
+        <v>10</v>
+      </c>
+      <c r="H86" s="53">
+        <v>10</v>
+      </c>
+      <c r="J86" s="53">
+        <v>10</v>
+      </c>
+      <c r="K86" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="54">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="C87" s="54">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="D87" s="54">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="F87" s="54">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="G87" s="54">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="H87" s="54">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="J87" s="54">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="K87" s="54">
+        <v>1.9999999999999999E-11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="35">
-        <v>10</v>
-      </c>
-      <c r="C55" s="59">
-        <v>10</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="24"/>
-      <c r="V55" s="24"/>
-      <c r="W55" s="24"/>
-    </row>
-    <row r="56" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A56" s="17" t="s">
+      <c r="B88" s="71"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71">
+        <v>-3.1</v>
+      </c>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71">
+        <v>-2.1</v>
+      </c>
+      <c r="I88" s="71"/>
+      <c r="J88" s="71">
+        <v>-3.1</v>
+      </c>
+      <c r="K88" s="71"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="34">
-        <v>9.9999999999999994E-12</v>
-      </c>
-      <c r="C56" s="60">
-        <v>9.9999999999999994E-12</v>
-      </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-    </row>
-    <row r="57" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A57" s="17" t="s">
+      <c r="H89" s="78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="36">
-        <v>-0.6</v>
-      </c>
-      <c r="C57" s="36">
-        <v>-1.3</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-    </row>
-    <row r="58" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A58" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="24"/>
-      <c r="U58" s="24"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="24"/>
-    </row>
-    <row r="59" spans="1:23" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A59" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
-      <c r="T59" s="24"/>
-      <c r="U59" s="24"/>
-      <c r="V59" s="24"/>
-      <c r="W59" s="24"/>
-    </row>
-    <row r="60" spans="1:23" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="17"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="24"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
-    </row>
-    <row r="61" spans="1:23" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="17"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="24"/>
-      <c r="T61" s="24"/>
-      <c r="U61" s="24"/>
-      <c r="V61" s="24"/>
-      <c r="W61" s="24"/>
-    </row>
-    <row r="62" spans="1:23" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="1:23" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="43">
-        <v>20200912232300</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" s="44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" s="45">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="46">
-        <v>2.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="48">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="61">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="52">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B78" s="52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="53">
-        <v>9.9999999999999994E-12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" spans="1:5" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-    <row r="93" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="62">
-        <v>20201012002439</v>
-      </c>
-      <c r="C93" s="62">
-        <v>20201012002439</v>
-      </c>
-      <c r="D93" s="62">
-        <v>20201013162356</v>
-      </c>
-      <c r="E93" s="63"/>
-    </row>
-    <row r="94" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B94" s="22">
-        <v>30</v>
-      </c>
-      <c r="C94" s="22">
-        <v>30</v>
-      </c>
-      <c r="D94" s="22">
-        <v>30</v>
-      </c>
-      <c r="E94" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95" s="22">
-        <v>15</v>
-      </c>
-      <c r="C95" s="22">
-        <v>15</v>
-      </c>
-      <c r="D95" s="22">
-        <v>15</v>
-      </c>
-      <c r="E95" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="56">
-        <v>1</v>
-      </c>
-      <c r="C96" s="55">
-        <v>10</v>
-      </c>
-      <c r="D96" s="56">
-        <v>10</v>
-      </c>
-      <c r="E96" s="56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="57">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="C97" s="57">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="D97" s="57">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="E97" s="57">
-        <v>2.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="64">
-        <v>1E-3</v>
-      </c>
-      <c r="C98" s="67">
-        <v>0.01</v>
-      </c>
-      <c r="D98" s="58">
-        <v>0.01</v>
-      </c>
-      <c r="E98" s="58">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="C99" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="D99" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="E99" s="36">
-        <v>0.5</v>
-      </c>
-    </row>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="1:11" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="36" t="s">
-        <v>11</v>
-      </c>
+      <c r="B100" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
     </row>
     <row r="101" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="E101" s="69" t="s">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B101" s="62">
+        <v>20201017005641</v>
+      </c>
+      <c r="C101" s="62">
+        <v>20201017101751</v>
+      </c>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
     </row>
     <row r="102" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="59">
-        <v>0.2</v>
-      </c>
-      <c r="C102" s="59">
-        <v>0.3</v>
-      </c>
-      <c r="D102" s="59">
-        <v>0.3</v>
-      </c>
-      <c r="E102" s="59">
-        <v>0.3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B102" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E102" s="62"/>
     </row>
     <row r="103" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B103" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="E103" s="59" t="s">
-        <v>19</v>
-      </c>
+      <c r="A103" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="E103" s="69"/>
     </row>
     <row r="104" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B104" s="59">
-        <v>0.7</v>
-      </c>
-      <c r="C104" s="59">
-        <v>1.7</v>
-      </c>
-      <c r="D104" s="59">
-        <v>5</v>
-      </c>
-      <c r="E104" s="59">
-        <v>5</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B104" s="22">
+        <v>30</v>
+      </c>
+      <c r="C104" s="22">
+        <v>30</v>
+      </c>
+      <c r="D104" s="22">
+        <v>30</v>
+      </c>
+      <c r="E104" s="22"/>
     </row>
     <row r="105" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B105" s="60">
-        <v>9.9999999999999994E-12</v>
-      </c>
-      <c r="C105" s="60">
-        <v>9.9999999999999994E-12</v>
-      </c>
-      <c r="D105" s="60">
-        <v>9.9999999999999994E-12</v>
-      </c>
-      <c r="E105" s="60">
-        <v>9.9999999999999994E-12</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B105" s="22">
+        <v>15</v>
+      </c>
+      <c r="C105" s="22">
+        <v>15</v>
+      </c>
+      <c r="D105" s="22">
+        <v>15</v>
+      </c>
+      <c r="E105" s="22"/>
     </row>
     <row r="106" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B106" s="66">
-        <v>-1.69</v>
-      </c>
-      <c r="C106" s="66">
-        <v>-0.9</v>
-      </c>
-      <c r="D106" s="66">
-        <v>-3.33</v>
-      </c>
-      <c r="E106" s="66">
-        <v>-3.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B106" s="56">
+        <v>100</v>
+      </c>
+      <c r="C106" s="56">
+        <v>100</v>
+      </c>
+      <c r="D106" s="74">
+        <v>30</v>
+      </c>
+      <c r="E106" s="74"/>
     </row>
     <row r="107" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="17" t="s">
-        <v>24</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B107" s="57">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C107" s="57">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D107" s="57">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E107" s="57"/>
     </row>
     <row r="108" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="A108" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="58">
+        <v>1</v>
+      </c>
+      <c r="C108" s="58">
+        <v>1</v>
+      </c>
+      <c r="D108" s="75">
+        <v>0.05</v>
+      </c>
+      <c r="E108" s="75"/>
+    </row>
+    <row r="109" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="37">
+        <v>2</v>
+      </c>
+      <c r="C109" s="37">
+        <v>2</v>
+      </c>
+      <c r="D109" s="37">
+        <v>2</v>
+      </c>
+      <c r="E109" s="37"/>
+    </row>
+    <row r="110" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="37"/>
+    </row>
+    <row r="111" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="63"/>
+    </row>
+    <row r="112" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="C112" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="D112" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="E112" s="59"/>
+    </row>
+    <row r="113" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="59"/>
+    </row>
+    <row r="114" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" s="59">
+        <v>9.75</v>
+      </c>
+      <c r="C114" s="59">
+        <v>9.75</v>
+      </c>
+      <c r="D114" s="59">
+        <v>9.75</v>
+      </c>
+      <c r="E114" s="59"/>
+    </row>
+    <row r="115" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="60">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="C115" s="60">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="D115" s="60">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="E115" s="60"/>
+    </row>
+    <row r="116" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64">
+        <v>-0.9</v>
+      </c>
+      <c r="D116" s="64">
+        <v>-1.05</v>
+      </c>
+      <c r="E116" s="64"/>
+    </row>
+    <row r="117" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B100:D100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2896,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -2926,7 +3981,7 @@
     </row>
     <row r="2" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6">
         <v>1E-8</v>
@@ -2959,7 +4014,7 @@
     </row>
     <row r="3" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6">
         <v>2.0000000000000001E-9</v>
@@ -2992,7 +4047,7 @@
     </row>
     <row r="4" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6">
         <v>30000</v>
@@ -3025,7 +4080,7 @@
     </row>
     <row r="5" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3081,7 +4136,7 @@
     </row>
     <row r="7" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3">
         <v>1.87653</v>
@@ -3114,7 +4169,7 @@
     </row>
     <row r="8" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3">
         <v>1.87653</v>
@@ -3147,7 +4202,7 @@
     </row>
     <row r="9" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3">
         <v>0.12</v>
@@ -3180,7 +4235,7 @@
     </row>
     <row r="10" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="9">
         <v>3.9999999999999998E-7</v>
@@ -3213,7 +4268,7 @@
     </row>
     <row r="11" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="9">
         <v>9.9999999999999998E-13</v>
@@ -3246,7 +4301,7 @@
     </row>
     <row r="12" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="9">
         <v>1.0000000000000001E-5</v>
@@ -3279,7 +4334,7 @@
     </row>
     <row r="13" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" s="9">
         <v>3.0000000000000001E-5</v>
@@ -3312,7 +4367,7 @@
     </row>
     <row r="14" spans="1:25" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3">
         <v>50</v>
@@ -3345,7 +4400,7 @@
     </row>
     <row r="15" spans="1:25" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3">
         <v>1E-8</v>
@@ -3378,13 +4433,13 @@
     </row>
     <row r="16" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -3438,13 +4493,13 @@
     </row>
     <row r="18" spans="1:25" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -3471,13 +4526,13 @@
     </row>
     <row r="19" spans="1:25" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
